--- a/XuanSon/OpenStack/Install OpenStack/Ocata/Install_OPS_with_Linuxbridge/images/IP-Planning-Hardware-Requirements.xlsx
+++ b/XuanSon/OpenStack/Install OpenStack/Ocata/Install_OPS_with_Linuxbridge/images/IP-Planning-Hardware-Requirements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>Controller</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Hostname</t>
-  </si>
-  <si>
-    <t>172.16.69.1</t>
   </si>
   <si>
     <t>Gateway</t>
@@ -92,9 +89,6 @@
     <t>10.10.10.71</t>
   </si>
   <si>
-    <t>172.16.69.71</t>
-  </si>
-  <si>
     <t>ens3</t>
   </si>
   <si>
@@ -107,17 +101,32 @@
     <t>IP PLANNING dành cho LAB OpenStack - Ocata</t>
   </si>
   <si>
-    <t>172.16.69.72</t>
-  </si>
-  <si>
     <t>10.10.10.72</t>
+  </si>
+  <si>
+    <t>OPS-setup</t>
+  </si>
+  <si>
+    <t>10.10.10.20</t>
+  </si>
+  <si>
+    <t>192.168.2.71</t>
+  </si>
+  <si>
+    <t>192.168.2.72</t>
+  </si>
+  <si>
+    <t>192.168.2.1</t>
+  </si>
+  <si>
+    <t>192.168.2.20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +161,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +212,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -288,11 +316,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,7 +400,91 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -330,12 +505,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,32 +514,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -649,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:O15"/>
+  <dimension ref="C6:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,198 +818,444 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="C6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="C6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
     </row>
     <row r="7" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="3:15" ht="33" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="3" t="s">
+    </row>
+    <row r="9" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="27">
+        <v>6</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2</v>
+      </c>
+      <c r="K9" s="29">
+        <v>30</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="26"/>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="27">
+        <v>8</v>
+      </c>
+      <c r="J11" s="17">
+        <v>4</v>
+      </c>
+      <c r="K11" s="29">
+        <v>30</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="26"/>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="15" spans="3:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="43"/>
+    </row>
+    <row r="17" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
+    </row>
+    <row r="18" spans="3:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="M18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="N18" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
+      <c r="O18" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>30</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="16"/>
+      <c r="D20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="45"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="32">
+        <v>6</v>
+      </c>
+      <c r="J21" s="33">
+        <v>2</v>
+      </c>
+      <c r="K21" s="34">
+        <v>30</v>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+    </row>
+    <row r="22" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C22" s="26"/>
+      <c r="D22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+    </row>
+    <row r="23" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="D23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="E23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23">
-        <v>6</v>
-      </c>
-      <c r="J9" s="23">
+      <c r="G23" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="27">
+        <v>8</v>
+      </c>
+      <c r="J23" s="17">
+        <v>4</v>
+      </c>
+      <c r="K23" s="29">
+        <v>30</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C24" s="26"/>
+      <c r="D24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="19">
-        <v>30</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="11" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23">
-        <v>8</v>
-      </c>
-      <c r="J11" s="23">
-        <v>4</v>
-      </c>
-      <c r="K11" s="19">
-        <v>30</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-    </row>
-    <row r="12" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="15" spans="3:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="46">
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:O17"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="O11:O12"/>
@@ -868,11 +1266,32 @@
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L19:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>